--- a/SeriesDataset.xlsx
+++ b/SeriesDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\burlt\Downloads\Blogging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3D8689-8EE3-49F6-B219-5FAE259EAF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00FA14C-E2D6-4EB8-B4BE-52A9E07C5E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="257">
   <si>
     <t>book</t>
   </si>
@@ -733,6 +733,69 @@
   </si>
   <si>
     <t>Hopeless</t>
+  </si>
+  <si>
+    <t>When in Rome</t>
+  </si>
+  <si>
+    <t>Practice Makes Perfect</t>
+  </si>
+  <si>
+    <t>Beg, Borrow, or Steal</t>
+  </si>
+  <si>
+    <t>In Your Dreams</t>
+  </si>
+  <si>
+    <t>Butcher &amp; Blackbird</t>
+  </si>
+  <si>
+    <t>Leather &amp; Lark</t>
+  </si>
+  <si>
+    <t>Scythe &amp; Sparrow</t>
+  </si>
+  <si>
+    <t>Fix Her Up</t>
+  </si>
+  <si>
+    <t>Love Her or Lose Her</t>
+  </si>
+  <si>
+    <t>Tools of Engagement</t>
+  </si>
+  <si>
+    <t>It Happened One Summer</t>
+  </si>
+  <si>
+    <t>Hook, Line, and Sinker</t>
+  </si>
+  <si>
+    <t>Red Rising</t>
+  </si>
+  <si>
+    <t>Golden Son</t>
+  </si>
+  <si>
+    <t>Morning Star</t>
+  </si>
+  <si>
+    <t>Iron Gold</t>
+  </si>
+  <si>
+    <t>Dark Age</t>
+  </si>
+  <si>
+    <t>Light Bringer</t>
+  </si>
+  <si>
+    <t>Scythe</t>
+  </si>
+  <si>
+    <t>Thunderhead</t>
+  </si>
+  <si>
+    <t>The Toll</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228"/>
+      <selection activeCell="E240" sqref="E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5604,6 +5667,426 @@
         <v>133</v>
       </c>
     </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>236</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>3.87</v>
+      </c>
+      <c r="D228">
+        <v>215504</v>
+      </c>
+      <c r="E228">
+        <v>51</v>
+      </c>
+      <c r="F228" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>237</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>4</v>
+      </c>
+      <c r="D229">
+        <v>225701</v>
+      </c>
+      <c r="E229">
+        <v>51</v>
+      </c>
+      <c r="F229" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>238</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>4.01</v>
+      </c>
+      <c r="D230">
+        <v>128244</v>
+      </c>
+      <c r="E230">
+        <v>51</v>
+      </c>
+      <c r="F230" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>239</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D231">
+        <v>31476</v>
+      </c>
+      <c r="E231">
+        <v>51</v>
+      </c>
+      <c r="F231" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>240</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>4.01</v>
+      </c>
+      <c r="D232">
+        <v>622404</v>
+      </c>
+      <c r="E232">
+        <v>52</v>
+      </c>
+      <c r="F232" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>241</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>4</v>
+      </c>
+      <c r="D233">
+        <v>303749</v>
+      </c>
+      <c r="E233">
+        <v>52</v>
+      </c>
+      <c r="F233" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>242</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234">
+        <v>4.08</v>
+      </c>
+      <c r="D234">
+        <v>194700</v>
+      </c>
+      <c r="E234">
+        <v>52</v>
+      </c>
+      <c r="F234" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>243</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>3.59</v>
+      </c>
+      <c r="D235">
+        <v>185286</v>
+      </c>
+      <c r="E235">
+        <v>53</v>
+      </c>
+      <c r="F235" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>244</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+      <c r="C236">
+        <v>3.61</v>
+      </c>
+      <c r="D236">
+        <v>90195</v>
+      </c>
+      <c r="E236">
+        <v>53</v>
+      </c>
+      <c r="F236" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>245</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>3.73</v>
+      </c>
+      <c r="D237">
+        <v>80829</v>
+      </c>
+      <c r="E237">
+        <v>53</v>
+      </c>
+      <c r="F237" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>246</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>3.9</v>
+      </c>
+      <c r="D238">
+        <v>715449</v>
+      </c>
+      <c r="E238">
+        <v>54</v>
+      </c>
+      <c r="F238" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>247</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="C239">
+        <v>3.87</v>
+      </c>
+      <c r="D239">
+        <v>447158</v>
+      </c>
+      <c r="E239">
+        <v>54</v>
+      </c>
+      <c r="F239" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>248</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D240">
+        <v>788611</v>
+      </c>
+      <c r="E240">
+        <v>55</v>
+      </c>
+      <c r="F240" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>249</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241">
+        <v>4.5</v>
+      </c>
+      <c r="D241">
+        <v>484274</v>
+      </c>
+      <c r="E241">
+        <v>55</v>
+      </c>
+      <c r="F241" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>250</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242">
+        <v>4.54</v>
+      </c>
+      <c r="D242">
+        <v>394610</v>
+      </c>
+      <c r="E242">
+        <v>55</v>
+      </c>
+      <c r="F242" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>251</v>
+      </c>
+      <c r="B243">
+        <v>4</v>
+      </c>
+      <c r="C243">
+        <v>4.21</v>
+      </c>
+      <c r="D243">
+        <v>183989</v>
+      </c>
+      <c r="E243">
+        <v>55</v>
+      </c>
+      <c r="F243" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>252</v>
+      </c>
+      <c r="B244">
+        <v>5</v>
+      </c>
+      <c r="C244">
+        <v>4.51</v>
+      </c>
+      <c r="D244">
+        <v>132755</v>
+      </c>
+      <c r="E244">
+        <v>55</v>
+      </c>
+      <c r="F244" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>253</v>
+      </c>
+      <c r="B245">
+        <v>6</v>
+      </c>
+      <c r="C245">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D245">
+        <v>103761</v>
+      </c>
+      <c r="E245">
+        <v>55</v>
+      </c>
+      <c r="F245" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>254</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>4.32</v>
+      </c>
+      <c r="D246">
+        <v>415372</v>
+      </c>
+      <c r="E246">
+        <v>56</v>
+      </c>
+      <c r="F246" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>255</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>4.38</v>
+      </c>
+      <c r="D247">
+        <v>236379</v>
+      </c>
+      <c r="E247">
+        <v>56</v>
+      </c>
+      <c r="F247" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>256</v>
+      </c>
+      <c r="B248">
+        <v>3</v>
+      </c>
+      <c r="C248">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D248">
+        <v>173450</v>
+      </c>
+      <c r="E248">
+        <v>56</v>
+      </c>
+      <c r="F248" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SeriesDataset.xlsx
+++ b/SeriesDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\burlt\Downloads\Blogging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00FA14C-E2D6-4EB8-B4BE-52A9E07C5E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EA8763-003F-4C14-866E-F10BDA76FF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="404">
   <si>
     <t>book</t>
   </si>
@@ -796,6 +796,447 @@
   </si>
   <si>
     <t>The Toll</t>
+  </si>
+  <si>
+    <t>Finlay Donovan Is Killing It</t>
+  </si>
+  <si>
+    <t>Finlay Donovan Knocks 'Em Dead</t>
+  </si>
+  <si>
+    <t>Finlay Donovan Jumps the Gun</t>
+  </si>
+  <si>
+    <t>Finlay Donovan Rolls the Dice</t>
+  </si>
+  <si>
+    <t>Finlay Donovan Digs Her Own Grave</t>
+  </si>
+  <si>
+    <t>The Maid</t>
+  </si>
+  <si>
+    <t>The Mystery Guest</t>
+  </si>
+  <si>
+    <t>The Maid's Secret</t>
+  </si>
+  <si>
+    <t>A Study in Scarlet</t>
+  </si>
+  <si>
+    <t>The Sign of Four</t>
+  </si>
+  <si>
+    <t>The Adventures of Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>The Memoirs of Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>The Hound of Baskervilles</t>
+  </si>
+  <si>
+    <t>The Return of Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>The Valley of Fear</t>
+  </si>
+  <si>
+    <t>His Last Bow</t>
+  </si>
+  <si>
+    <t>The Case-Book of Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>The Housemaid</t>
+  </si>
+  <si>
+    <t>The Housemaid's Secret</t>
+  </si>
+  <si>
+    <t>The Housemaid is Watching</t>
+  </si>
+  <si>
+    <t>Magpie Murders</t>
+  </si>
+  <si>
+    <t>Mooflower Murders</t>
+  </si>
+  <si>
+    <t>Marble Hall Murders</t>
+  </si>
+  <si>
+    <t>The Shadow of the Wind</t>
+  </si>
+  <si>
+    <t>The Angel's Game</t>
+  </si>
+  <si>
+    <t>The Prisoner of Heaven</t>
+  </si>
+  <si>
+    <t>El laberinto de los espíritus</t>
+  </si>
+  <si>
+    <t>Everyone in My Family Has Killed Someone</t>
+  </si>
+  <si>
+    <t>Everyone on This Train Is a Suspect</t>
+  </si>
+  <si>
+    <t>Everyone This Christmas Has a Secret</t>
+  </si>
+  <si>
+    <t>The No. 1 Ladies' Detective Agency</t>
+  </si>
+  <si>
+    <t>Tears of the Giraffe</t>
+  </si>
+  <si>
+    <t>Morality for Beautiful Girls</t>
+  </si>
+  <si>
+    <t>The Kalahari Typing School for Men</t>
+  </si>
+  <si>
+    <t>The Full Cupboard of Life</t>
+  </si>
+  <si>
+    <t>In the Company of Cheerful Ladies</t>
+  </si>
+  <si>
+    <t>Blue Shoes and Happiness</t>
+  </si>
+  <si>
+    <t>The Good Husband of Zebra Drive</t>
+  </si>
+  <si>
+    <t>The Miracle at Speedy Motors</t>
+  </si>
+  <si>
+    <t>Tea Time for the Traditionally Built</t>
+  </si>
+  <si>
+    <t>The Naturals</t>
+  </si>
+  <si>
+    <t>Killer Instinct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All In </t>
+  </si>
+  <si>
+    <t>Bad Blood</t>
+  </si>
+  <si>
+    <t>The Dry</t>
+  </si>
+  <si>
+    <t>Force of Nature</t>
+  </si>
+  <si>
+    <t>Exiles</t>
+  </si>
+  <si>
+    <t>In the Woods</t>
+  </si>
+  <si>
+    <t>The Likeness</t>
+  </si>
+  <si>
+    <t>Faithful Place</t>
+  </si>
+  <si>
+    <t>Broken Harbor</t>
+  </si>
+  <si>
+    <t>The Secret Place</t>
+  </si>
+  <si>
+    <t>The Trespasser</t>
+  </si>
+  <si>
+    <t>The Big Sleep</t>
+  </si>
+  <si>
+    <t>Farewell, My Lovely</t>
+  </si>
+  <si>
+    <t>The High Window</t>
+  </si>
+  <si>
+    <t>The Lady in the Lake</t>
+  </si>
+  <si>
+    <t>The Little Sister</t>
+  </si>
+  <si>
+    <t>The Long Goodbye</t>
+  </si>
+  <si>
+    <t>Playback</t>
+  </si>
+  <si>
+    <t>Trouble Is My Business</t>
+  </si>
+  <si>
+    <t>Truly Devious</t>
+  </si>
+  <si>
+    <t>The Vanishing Stair</t>
+  </si>
+  <si>
+    <t>The Hand on the Wall</t>
+  </si>
+  <si>
+    <t>The Box in the Woods</t>
+  </si>
+  <si>
+    <t>Nine Liars</t>
+  </si>
+  <si>
+    <t>Stalking Jack the Ripper</t>
+  </si>
+  <si>
+    <t>Hunting Prince Dracula</t>
+  </si>
+  <si>
+    <t>Escaping from Houdini</t>
+  </si>
+  <si>
+    <t>Capturing the Devil</t>
+  </si>
+  <si>
+    <t>The Word is Murder</t>
+  </si>
+  <si>
+    <t>The Sentence is Death</t>
+  </si>
+  <si>
+    <t>A Line to Kill</t>
+  </si>
+  <si>
+    <t>The Twist of a Knife</t>
+  </si>
+  <si>
+    <t>Close to Death</t>
+  </si>
+  <si>
+    <t>A Study in Charlotte</t>
+  </si>
+  <si>
+    <t>The Last of August</t>
+  </si>
+  <si>
+    <t>The Case for Jamie</t>
+  </si>
+  <si>
+    <t>A Question of Holmes</t>
+  </si>
+  <si>
+    <t>Once Upon a Broken Heart</t>
+  </si>
+  <si>
+    <t>The Ballad of Never After</t>
+  </si>
+  <si>
+    <t>A Curse for True Love</t>
+  </si>
+  <si>
+    <t>Red Queen</t>
+  </si>
+  <si>
+    <t>Glass Sword</t>
+  </si>
+  <si>
+    <t>King's Cage</t>
+  </si>
+  <si>
+    <t>War Storm</t>
+  </si>
+  <si>
+    <t>Uglies</t>
+  </si>
+  <si>
+    <t>Pretties</t>
+  </si>
+  <si>
+    <t>Specials</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Matched</t>
+  </si>
+  <si>
+    <t>Crossed</t>
+  </si>
+  <si>
+    <t>Reached</t>
+  </si>
+  <si>
+    <t>Graceling</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Bitterblue</t>
+  </si>
+  <si>
+    <t>Winterkeep</t>
+  </si>
+  <si>
+    <t>Daughter of Smoke &amp; Bone</t>
+  </si>
+  <si>
+    <t>Days of Blood &amp; Starlight</t>
+  </si>
+  <si>
+    <t>Dreams of Gods &amp; Monsters</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Prodigy</t>
+  </si>
+  <si>
+    <t>Champion</t>
+  </si>
+  <si>
+    <t>Rebel</t>
+  </si>
+  <si>
+    <t>Beautiful Creatures</t>
+  </si>
+  <si>
+    <t>Beautiful Darkness</t>
+  </si>
+  <si>
+    <t>Beautiful Chaos</t>
+  </si>
+  <si>
+    <t>Beautiful Redemption</t>
+  </si>
+  <si>
+    <t>The Fine Print</t>
+  </si>
+  <si>
+    <t>Terms and Conditions</t>
+  </si>
+  <si>
+    <t>Final Offer</t>
+  </si>
+  <si>
+    <t>Mile High</t>
+  </si>
+  <si>
+    <t>The Right Move</t>
+  </si>
+  <si>
+    <t>Caught Up</t>
+  </si>
+  <si>
+    <t>Play Along</t>
+  </si>
+  <si>
+    <t>Rewind It Back</t>
+  </si>
+  <si>
+    <t>The Bromance Book Club</t>
+  </si>
+  <si>
+    <t>Undercover Bromance</t>
+  </si>
+  <si>
+    <t>Crazy Studpid Bromance</t>
+  </si>
+  <si>
+    <t>Isn't It Bromantic?</t>
+  </si>
+  <si>
+    <t>A Very Merry Bromance</t>
+  </si>
+  <si>
+    <t>The Pumpkin Spice Café</t>
+  </si>
+  <si>
+    <t>The Cinnamon Bun Book Store</t>
+  </si>
+  <si>
+    <t>The Christmas Tree Farm</t>
+  </si>
+  <si>
+    <t>The Strawberry Patch Pancake House</t>
+  </si>
+  <si>
+    <t>The Gingerbread Bakery</t>
+  </si>
+  <si>
+    <t>Icebreaker</t>
+  </si>
+  <si>
+    <t>Wildfire</t>
+  </si>
+  <si>
+    <t>Daydream</t>
+  </si>
+  <si>
+    <t>Wild Love</t>
+  </si>
+  <si>
+    <t>Wild Eyes</t>
+  </si>
+  <si>
+    <t>Wild Side</t>
+  </si>
+  <si>
+    <t>Wild Card</t>
+  </si>
+  <si>
+    <t>Done and Dusted</t>
+  </si>
+  <si>
+    <t>Swift and Saddled</t>
+  </si>
+  <si>
+    <t>Lost and Lassoed</t>
+  </si>
+  <si>
+    <t>Wild and Wrangled</t>
+  </si>
+  <si>
+    <t>The Rosie Project</t>
+  </si>
+  <si>
+    <t>The Rosie Effect</t>
+  </si>
+  <si>
+    <t>The Rosie Result</t>
+  </si>
+  <si>
+    <t>Part of Your World</t>
+  </si>
+  <si>
+    <t>Yours Truly</t>
+  </si>
+  <si>
+    <t>Just for the Summer</t>
+  </si>
+  <si>
+    <t>Lovelight Farms</t>
+  </si>
+  <si>
+    <t>In the Weeds</t>
+  </si>
+  <si>
+    <t>Mixed Signals</t>
+  </si>
+  <si>
+    <t>Business Casual</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E240" sqref="E240"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="I389" sqref="I389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1544,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -6085,6 +6526,2946 @@
       </c>
       <c r="F248" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>257</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>3.99</v>
+      </c>
+      <c r="D249">
+        <v>237208</v>
+      </c>
+      <c r="E249">
+        <v>57</v>
+      </c>
+      <c r="F249" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>258</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>3.96</v>
+      </c>
+      <c r="D250">
+        <v>121813</v>
+      </c>
+      <c r="E250">
+        <v>57</v>
+      </c>
+      <c r="F250" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>259</v>
+      </c>
+      <c r="B251">
+        <v>3</v>
+      </c>
+      <c r="C251">
+        <v>3.82</v>
+      </c>
+      <c r="D251">
+        <v>83657</v>
+      </c>
+      <c r="E251">
+        <v>57</v>
+      </c>
+      <c r="F251" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>260</v>
+      </c>
+      <c r="B252">
+        <v>4</v>
+      </c>
+      <c r="C252">
+        <v>3.9</v>
+      </c>
+      <c r="D252">
+        <v>58831</v>
+      </c>
+      <c r="E252">
+        <v>57</v>
+      </c>
+      <c r="F252" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>261</v>
+      </c>
+      <c r="B253">
+        <v>5</v>
+      </c>
+      <c r="C253">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D253">
+        <v>39030</v>
+      </c>
+      <c r="E253">
+        <v>57</v>
+      </c>
+      <c r="F253" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>262</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>3.75</v>
+      </c>
+      <c r="D254">
+        <v>710681</v>
+      </c>
+      <c r="E254">
+        <v>58</v>
+      </c>
+      <c r="F254" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>263</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>3.79</v>
+      </c>
+      <c r="D255">
+        <v>160804</v>
+      </c>
+      <c r="E255">
+        <v>58</v>
+      </c>
+      <c r="F255" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>264</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>3.88</v>
+      </c>
+      <c r="D256">
+        <v>45548</v>
+      </c>
+      <c r="E256">
+        <v>58</v>
+      </c>
+      <c r="F256" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>265</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>4.13</v>
+      </c>
+      <c r="D257">
+        <v>496078</v>
+      </c>
+      <c r="E257">
+        <v>59</v>
+      </c>
+      <c r="F257" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>266</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258">
+        <v>3.88</v>
+      </c>
+      <c r="D258">
+        <v>178680</v>
+      </c>
+      <c r="E258">
+        <v>59</v>
+      </c>
+      <c r="F258" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>267</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>4.3</v>
+      </c>
+      <c r="D259">
+        <v>326998</v>
+      </c>
+      <c r="E259">
+        <v>59</v>
+      </c>
+      <c r="F259" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>268</v>
+      </c>
+      <c r="B260">
+        <v>4</v>
+      </c>
+      <c r="C260">
+        <v>4.29</v>
+      </c>
+      <c r="D260">
+        <v>105786</v>
+      </c>
+      <c r="E260">
+        <v>59</v>
+      </c>
+      <c r="F260" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>269</v>
+      </c>
+      <c r="B261">
+        <v>5</v>
+      </c>
+      <c r="C261">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D261">
+        <v>389417</v>
+      </c>
+      <c r="E261">
+        <v>59</v>
+      </c>
+      <c r="F261" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>270</v>
+      </c>
+      <c r="B262">
+        <v>6</v>
+      </c>
+      <c r="C262">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D262">
+        <v>70583</v>
+      </c>
+      <c r="E262">
+        <v>59</v>
+      </c>
+      <c r="F262" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>271</v>
+      </c>
+      <c r="B263">
+        <v>7</v>
+      </c>
+      <c r="C263">
+        <v>3.96</v>
+      </c>
+      <c r="D263">
+        <v>55714</v>
+      </c>
+      <c r="E263">
+        <v>59</v>
+      </c>
+      <c r="F263" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>272</v>
+      </c>
+      <c r="B264">
+        <v>8</v>
+      </c>
+      <c r="C264">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D264">
+        <v>47229</v>
+      </c>
+      <c r="E264">
+        <v>59</v>
+      </c>
+      <c r="F264" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>273</v>
+      </c>
+      <c r="B265">
+        <v>9</v>
+      </c>
+      <c r="C265">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D265">
+        <v>307171</v>
+      </c>
+      <c r="E265">
+        <v>59</v>
+      </c>
+      <c r="F265" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>274</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D266">
+        <v>3440902</v>
+      </c>
+      <c r="E266">
+        <v>60</v>
+      </c>
+      <c r="F266" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>275</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>4.17</v>
+      </c>
+      <c r="D267">
+        <v>1701693</v>
+      </c>
+      <c r="E267">
+        <v>60</v>
+      </c>
+      <c r="F267" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>276</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>3.86</v>
+      </c>
+      <c r="D268">
+        <v>1000301</v>
+      </c>
+      <c r="E268">
+        <v>60</v>
+      </c>
+      <c r="F268" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>277</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>3.95</v>
+      </c>
+      <c r="D269">
+        <v>167511</v>
+      </c>
+      <c r="E269">
+        <v>61</v>
+      </c>
+      <c r="F269" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>278</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D270">
+        <v>65795</v>
+      </c>
+      <c r="E270">
+        <v>61</v>
+      </c>
+      <c r="F270" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>279</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D271">
+        <v>27211</v>
+      </c>
+      <c r="E271">
+        <v>61</v>
+      </c>
+      <c r="F271" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>280</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D272">
+        <v>722687</v>
+      </c>
+      <c r="E272">
+        <v>62</v>
+      </c>
+      <c r="F272" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>281</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D273">
+        <v>184917</v>
+      </c>
+      <c r="E273">
+        <v>62</v>
+      </c>
+      <c r="F273" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>282</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D274">
+        <v>116771</v>
+      </c>
+      <c r="E274">
+        <v>62</v>
+      </c>
+      <c r="F274" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>283</v>
+      </c>
+      <c r="B275">
+        <v>4</v>
+      </c>
+      <c r="C275">
+        <v>4.54</v>
+      </c>
+      <c r="D275">
+        <v>64967</v>
+      </c>
+      <c r="E275">
+        <v>62</v>
+      </c>
+      <c r="F275" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>284</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>3.76</v>
+      </c>
+      <c r="D276">
+        <v>229415</v>
+      </c>
+      <c r="E276">
+        <v>63</v>
+      </c>
+      <c r="F276" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>285</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>3.82</v>
+      </c>
+      <c r="D277">
+        <v>86283</v>
+      </c>
+      <c r="E277">
+        <v>63</v>
+      </c>
+      <c r="F277" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>286</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>3.68</v>
+      </c>
+      <c r="D278">
+        <v>43916</v>
+      </c>
+      <c r="E278">
+        <v>63</v>
+      </c>
+      <c r="F278" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>287</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>3.81</v>
+      </c>
+      <c r="D279">
+        <v>276151</v>
+      </c>
+      <c r="E279">
+        <v>64</v>
+      </c>
+      <c r="F279" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>288</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="C280">
+        <v>3.98</v>
+      </c>
+      <c r="D280">
+        <v>60952</v>
+      </c>
+      <c r="E280">
+        <v>64</v>
+      </c>
+      <c r="F280" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>289</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <v>3.99</v>
+      </c>
+      <c r="D281">
+        <v>46131</v>
+      </c>
+      <c r="E281">
+        <v>64</v>
+      </c>
+      <c r="F281" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>290</v>
+      </c>
+      <c r="B282">
+        <v>4</v>
+      </c>
+      <c r="C282">
+        <v>4.01</v>
+      </c>
+      <c r="D282">
+        <v>42606</v>
+      </c>
+      <c r="E282">
+        <v>64</v>
+      </c>
+      <c r="F282" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>291</v>
+      </c>
+      <c r="B283">
+        <v>5</v>
+      </c>
+      <c r="C283">
+        <v>4.03</v>
+      </c>
+      <c r="D283">
+        <v>34902</v>
+      </c>
+      <c r="E283">
+        <v>64</v>
+      </c>
+      <c r="F283" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>292</v>
+      </c>
+      <c r="B284">
+        <v>6</v>
+      </c>
+      <c r="C284">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D284">
+        <v>31097</v>
+      </c>
+      <c r="E284">
+        <v>64</v>
+      </c>
+      <c r="F284" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>293</v>
+      </c>
+      <c r="B285">
+        <v>7</v>
+      </c>
+      <c r="C285">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D285">
+        <v>29968</v>
+      </c>
+      <c r="E285">
+        <v>64</v>
+      </c>
+      <c r="F285" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>294</v>
+      </c>
+      <c r="B286">
+        <v>8</v>
+      </c>
+      <c r="C286">
+        <v>4.08</v>
+      </c>
+      <c r="D286">
+        <v>27929</v>
+      </c>
+      <c r="E286">
+        <v>64</v>
+      </c>
+      <c r="F286" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>295</v>
+      </c>
+      <c r="B287">
+        <v>9</v>
+      </c>
+      <c r="C287">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D287">
+        <v>25802</v>
+      </c>
+      <c r="E287">
+        <v>64</v>
+      </c>
+      <c r="F287" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>296</v>
+      </c>
+      <c r="B288">
+        <v>10</v>
+      </c>
+      <c r="C288">
+        <v>4.13</v>
+      </c>
+      <c r="D288">
+        <v>24191</v>
+      </c>
+      <c r="E288">
+        <v>64</v>
+      </c>
+      <c r="F288" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>297</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>4.22</v>
+      </c>
+      <c r="D289">
+        <v>347185</v>
+      </c>
+      <c r="E289">
+        <v>65</v>
+      </c>
+      <c r="F289" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>298</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290">
+        <v>4.26</v>
+      </c>
+      <c r="D290">
+        <v>226958</v>
+      </c>
+      <c r="E290">
+        <v>65</v>
+      </c>
+      <c r="F290" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>299</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <v>4.34</v>
+      </c>
+      <c r="D291">
+        <v>181249</v>
+      </c>
+      <c r="E291">
+        <v>65</v>
+      </c>
+      <c r="F291" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>300</v>
+      </c>
+      <c r="B292">
+        <v>4</v>
+      </c>
+      <c r="C292">
+        <v>4.37</v>
+      </c>
+      <c r="D292">
+        <v>154693</v>
+      </c>
+      <c r="E292">
+        <v>65</v>
+      </c>
+      <c r="F292" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>301</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D293">
+        <v>267784</v>
+      </c>
+      <c r="E293">
+        <v>66</v>
+      </c>
+      <c r="F293" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>302</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+      <c r="C294">
+        <v>3.83</v>
+      </c>
+      <c r="D294">
+        <v>124395</v>
+      </c>
+      <c r="E294">
+        <v>66</v>
+      </c>
+      <c r="F294" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>303</v>
+      </c>
+      <c r="B295">
+        <v>3</v>
+      </c>
+      <c r="C295">
+        <v>4.03</v>
+      </c>
+      <c r="D295">
+        <v>74380</v>
+      </c>
+      <c r="E295">
+        <v>66</v>
+      </c>
+      <c r="F295" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>304</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>3.79</v>
+      </c>
+      <c r="D296">
+        <v>440564</v>
+      </c>
+      <c r="E296">
+        <v>67</v>
+      </c>
+      <c r="F296" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>305</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D297">
+        <v>180880</v>
+      </c>
+      <c r="E297">
+        <v>67</v>
+      </c>
+      <c r="F297" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>306</v>
+      </c>
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <v>4</v>
+      </c>
+      <c r="D298">
+        <v>132766</v>
+      </c>
+      <c r="E298">
+        <v>67</v>
+      </c>
+      <c r="F298" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>307</v>
+      </c>
+      <c r="B299">
+        <v>4</v>
+      </c>
+      <c r="C299">
+        <v>3.95</v>
+      </c>
+      <c r="D299">
+        <v>110252</v>
+      </c>
+      <c r="E299">
+        <v>67</v>
+      </c>
+      <c r="F299" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>308</v>
+      </c>
+      <c r="B300">
+        <v>5</v>
+      </c>
+      <c r="C300">
+        <v>3.85</v>
+      </c>
+      <c r="D300">
+        <v>94637</v>
+      </c>
+      <c r="E300">
+        <v>67</v>
+      </c>
+      <c r="F300" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>309</v>
+      </c>
+      <c r="B301">
+        <v>6</v>
+      </c>
+      <c r="C301">
+        <v>3.99</v>
+      </c>
+      <c r="D301">
+        <v>96821</v>
+      </c>
+      <c r="E301">
+        <v>67</v>
+      </c>
+      <c r="F301" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>310</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>3.94</v>
+      </c>
+      <c r="D302">
+        <v>168</v>
+      </c>
+      <c r="E302">
+        <v>68</v>
+      </c>
+      <c r="F302" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>311</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303">
+        <v>4.09</v>
+      </c>
+      <c r="D303">
+        <v>42982</v>
+      </c>
+      <c r="E303">
+        <v>68</v>
+      </c>
+      <c r="F303" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>312</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304">
+        <v>4.04</v>
+      </c>
+      <c r="D304">
+        <v>25507</v>
+      </c>
+      <c r="E304">
+        <v>68</v>
+      </c>
+      <c r="F304" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>313</v>
+      </c>
+      <c r="B305">
+        <v>4</v>
+      </c>
+      <c r="C305">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D305">
+        <v>28188</v>
+      </c>
+      <c r="E305">
+        <v>68</v>
+      </c>
+      <c r="F305" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>314</v>
+      </c>
+      <c r="B306">
+        <v>5</v>
+      </c>
+      <c r="C306">
+        <v>3.98</v>
+      </c>
+      <c r="D306">
+        <v>18911</v>
+      </c>
+      <c r="E306">
+        <v>68</v>
+      </c>
+      <c r="F306" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>315</v>
+      </c>
+      <c r="B307">
+        <v>6</v>
+      </c>
+      <c r="C307">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D307">
+        <v>46885</v>
+      </c>
+      <c r="E307">
+        <v>68</v>
+      </c>
+      <c r="F307" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>316</v>
+      </c>
+      <c r="B308">
+        <v>7</v>
+      </c>
+      <c r="C308">
+        <v>3.8</v>
+      </c>
+      <c r="D308">
+        <v>11123</v>
+      </c>
+      <c r="E308">
+        <v>68</v>
+      </c>
+      <c r="F308" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>317</v>
+      </c>
+      <c r="B309">
+        <v>8</v>
+      </c>
+      <c r="C309">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D309">
+        <v>13090</v>
+      </c>
+      <c r="E309">
+        <v>68</v>
+      </c>
+      <c r="F309" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>318</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>3.88</v>
+      </c>
+      <c r="D310">
+        <v>182137</v>
+      </c>
+      <c r="E310">
+        <v>69</v>
+      </c>
+      <c r="F310" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>319</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D311">
+        <v>108430</v>
+      </c>
+      <c r="E311">
+        <v>69</v>
+      </c>
+      <c r="F311" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>320</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D312">
+        <v>94265</v>
+      </c>
+      <c r="E312">
+        <v>69</v>
+      </c>
+      <c r="F312" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>321</v>
+      </c>
+      <c r="B313">
+        <v>4</v>
+      </c>
+      <c r="C313">
+        <v>4.05</v>
+      </c>
+      <c r="D313">
+        <v>55725</v>
+      </c>
+      <c r="E313">
+        <v>69</v>
+      </c>
+      <c r="F313" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>322</v>
+      </c>
+      <c r="B314">
+        <v>5</v>
+      </c>
+      <c r="C314">
+        <v>3.79</v>
+      </c>
+      <c r="D314">
+        <v>33351</v>
+      </c>
+      <c r="E314">
+        <v>69</v>
+      </c>
+      <c r="F314" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>323</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>3.92</v>
+      </c>
+      <c r="D315">
+        <v>181244</v>
+      </c>
+      <c r="E315">
+        <v>70</v>
+      </c>
+      <c r="F315" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>324</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+      <c r="C316">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D316">
+        <v>86504</v>
+      </c>
+      <c r="E316">
+        <v>70</v>
+      </c>
+      <c r="F316" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>325</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+      <c r="C317">
+        <v>3.92</v>
+      </c>
+      <c r="D317">
+        <v>59659</v>
+      </c>
+      <c r="E317">
+        <v>70</v>
+      </c>
+      <c r="F317" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>326</v>
+      </c>
+      <c r="B318">
+        <v>4</v>
+      </c>
+      <c r="C318">
+        <v>4.18</v>
+      </c>
+      <c r="D318">
+        <v>47028</v>
+      </c>
+      <c r="E318">
+        <v>70</v>
+      </c>
+      <c r="F318" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>327</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>3.93</v>
+      </c>
+      <c r="D319">
+        <v>100420</v>
+      </c>
+      <c r="E319">
+        <v>71</v>
+      </c>
+      <c r="F319" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>328</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <v>3.98</v>
+      </c>
+      <c r="D320">
+        <v>56112</v>
+      </c>
+      <c r="E320">
+        <v>71</v>
+      </c>
+      <c r="F320" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>329</v>
+      </c>
+      <c r="B321">
+        <v>3</v>
+      </c>
+      <c r="C321">
+        <v>3.94</v>
+      </c>
+      <c r="D321">
+        <v>45687</v>
+      </c>
+      <c r="E321">
+        <v>71</v>
+      </c>
+      <c r="F321" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>330</v>
+      </c>
+      <c r="B322">
+        <v>4</v>
+      </c>
+      <c r="C322">
+        <v>4.09</v>
+      </c>
+      <c r="D322">
+        <v>38705</v>
+      </c>
+      <c r="E322">
+        <v>71</v>
+      </c>
+      <c r="F322" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>331</v>
+      </c>
+      <c r="B323">
+        <v>5</v>
+      </c>
+      <c r="C323">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D323">
+        <v>33797</v>
+      </c>
+      <c r="E323">
+        <v>71</v>
+      </c>
+      <c r="F323" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>332</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>3.75</v>
+      </c>
+      <c r="D324">
+        <v>66151</v>
+      </c>
+      <c r="E324">
+        <v>72</v>
+      </c>
+      <c r="F324" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>333</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>3.6</v>
+      </c>
+      <c r="D325">
+        <v>24440</v>
+      </c>
+      <c r="E325">
+        <v>72</v>
+      </c>
+      <c r="F325" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>334</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>3.98</v>
+      </c>
+      <c r="D326">
+        <v>16195</v>
+      </c>
+      <c r="E326">
+        <v>72</v>
+      </c>
+      <c r="F326" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>335</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <v>3.96</v>
+      </c>
+      <c r="D327">
+        <v>12093</v>
+      </c>
+      <c r="E327">
+        <v>72</v>
+      </c>
+      <c r="F327" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>336</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D328">
+        <v>669947</v>
+      </c>
+      <c r="E328">
+        <v>73</v>
+      </c>
+      <c r="F328" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>337</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+      <c r="C329">
+        <v>4.49</v>
+      </c>
+      <c r="D329">
+        <v>484312</v>
+      </c>
+      <c r="E329">
+        <v>73</v>
+      </c>
+      <c r="F329" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>338</v>
+      </c>
+      <c r="B330">
+        <v>3</v>
+      </c>
+      <c r="C330">
+        <v>4.17</v>
+      </c>
+      <c r="D330">
+        <v>418169</v>
+      </c>
+      <c r="E330">
+        <v>73</v>
+      </c>
+      <c r="F330" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>339</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>3.98</v>
+      </c>
+      <c r="D331">
+        <v>1174732</v>
+      </c>
+      <c r="E331">
+        <v>74</v>
+      </c>
+      <c r="F331" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>340</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332">
+        <v>3.78</v>
+      </c>
+      <c r="D332">
+        <v>424819</v>
+      </c>
+      <c r="E332">
+        <v>74</v>
+      </c>
+      <c r="F332" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>341</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>3.88</v>
+      </c>
+      <c r="D333">
+        <v>298798</v>
+      </c>
+      <c r="E333">
+        <v>74</v>
+      </c>
+      <c r="F333" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>342</v>
+      </c>
+      <c r="B334">
+        <v>4</v>
+      </c>
+      <c r="C334">
+        <v>3.8</v>
+      </c>
+      <c r="D334">
+        <v>205400</v>
+      </c>
+      <c r="E334">
+        <v>74</v>
+      </c>
+      <c r="F334" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>343</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>3.84</v>
+      </c>
+      <c r="D335">
+        <v>708812</v>
+      </c>
+      <c r="E335">
+        <v>75</v>
+      </c>
+      <c r="F335" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>344</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336">
+        <v>3.83</v>
+      </c>
+      <c r="D336">
+        <v>280260</v>
+      </c>
+      <c r="E336">
+        <v>75</v>
+      </c>
+      <c r="F336" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>345</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337">
+        <v>3.75</v>
+      </c>
+      <c r="D337">
+        <v>204483</v>
+      </c>
+      <c r="E337">
+        <v>75</v>
+      </c>
+      <c r="F337" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>346</v>
+      </c>
+      <c r="B338">
+        <v>4</v>
+      </c>
+      <c r="C338">
+        <v>3.59</v>
+      </c>
+      <c r="D338">
+        <v>127821</v>
+      </c>
+      <c r="E338">
+        <v>75</v>
+      </c>
+      <c r="F338" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>347</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>3.62</v>
+      </c>
+      <c r="D339">
+        <v>815392</v>
+      </c>
+      <c r="E339">
+        <v>76</v>
+      </c>
+      <c r="F339" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>348</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+      <c r="C340">
+        <v>3.52</v>
+      </c>
+      <c r="D340">
+        <v>259258</v>
+      </c>
+      <c r="E340">
+        <v>76</v>
+      </c>
+      <c r="F340" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>349</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341">
+        <v>3.54</v>
+      </c>
+      <c r="D341">
+        <v>177843</v>
+      </c>
+      <c r="E341">
+        <v>76</v>
+      </c>
+      <c r="F341" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>350</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D342">
+        <v>480639</v>
+      </c>
+      <c r="E342">
+        <v>77</v>
+      </c>
+      <c r="F342" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>351</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343">
+        <v>4.09</v>
+      </c>
+      <c r="D343">
+        <v>194224</v>
+      </c>
+      <c r="E343">
+        <v>77</v>
+      </c>
+      <c r="F343" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>352</v>
+      </c>
+      <c r="B344">
+        <v>3</v>
+      </c>
+      <c r="C344">
+        <v>4</v>
+      </c>
+      <c r="D344">
+        <v>124291</v>
+      </c>
+      <c r="E344">
+        <v>77</v>
+      </c>
+      <c r="F344" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>353</v>
+      </c>
+      <c r="B345">
+        <v>4</v>
+      </c>
+      <c r="C345">
+        <v>4</v>
+      </c>
+      <c r="D345">
+        <v>19510</v>
+      </c>
+      <c r="E345">
+        <v>77</v>
+      </c>
+      <c r="F345" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>354</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>3.99</v>
+      </c>
+      <c r="D346">
+        <v>385078</v>
+      </c>
+      <c r="E346">
+        <v>78</v>
+      </c>
+      <c r="F346" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>355</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+      <c r="C347">
+        <v>4.13</v>
+      </c>
+      <c r="D347">
+        <v>171169</v>
+      </c>
+      <c r="E347">
+        <v>78</v>
+      </c>
+      <c r="F347" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>356</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348">
+        <v>4.12</v>
+      </c>
+      <c r="D348">
+        <v>115555</v>
+      </c>
+      <c r="E348">
+        <v>78</v>
+      </c>
+      <c r="F348" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>357</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D349">
+        <v>564703</v>
+      </c>
+      <c r="E349">
+        <v>79</v>
+      </c>
+      <c r="F349" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>358</v>
+      </c>
+      <c r="B350">
+        <v>2</v>
+      </c>
+      <c r="C350">
+        <v>4.22</v>
+      </c>
+      <c r="D350">
+        <v>281952</v>
+      </c>
+      <c r="E350">
+        <v>79</v>
+      </c>
+      <c r="F350" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>359</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D351">
+        <v>233811</v>
+      </c>
+      <c r="E351">
+        <v>79</v>
+      </c>
+      <c r="F351" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>360</v>
+      </c>
+      <c r="B352">
+        <v>4</v>
+      </c>
+      <c r="C352">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D352">
+        <v>38587</v>
+      </c>
+      <c r="E352">
+        <v>79</v>
+      </c>
+      <c r="F352" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>361</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>3.77</v>
+      </c>
+      <c r="D353">
+        <v>621611</v>
+      </c>
+      <c r="E353">
+        <v>80</v>
+      </c>
+      <c r="F353" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>362</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354">
+        <v>3.83</v>
+      </c>
+      <c r="D354">
+        <v>142152</v>
+      </c>
+      <c r="E354">
+        <v>80</v>
+      </c>
+      <c r="F354" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>363</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355">
+        <v>3.92</v>
+      </c>
+      <c r="D355">
+        <v>106474</v>
+      </c>
+      <c r="E355">
+        <v>80</v>
+      </c>
+      <c r="F355" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>364</v>
+      </c>
+      <c r="B356">
+        <v>4</v>
+      </c>
+      <c r="C356">
+        <v>3.91</v>
+      </c>
+      <c r="D356">
+        <v>76152</v>
+      </c>
+      <c r="E356">
+        <v>80</v>
+      </c>
+      <c r="F356" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>365</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>3.8</v>
+      </c>
+      <c r="D357">
+        <v>664875</v>
+      </c>
+      <c r="E357">
+        <v>81</v>
+      </c>
+      <c r="F357" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>366</v>
+      </c>
+      <c r="B358">
+        <v>2</v>
+      </c>
+      <c r="C358">
+        <v>4.08</v>
+      </c>
+      <c r="D358">
+        <v>467880</v>
+      </c>
+      <c r="E358">
+        <v>81</v>
+      </c>
+      <c r="F358" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>367</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359">
+        <v>4.18</v>
+      </c>
+      <c r="D359">
+        <v>310244</v>
+      </c>
+      <c r="E359">
+        <v>81</v>
+      </c>
+      <c r="F359" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>368</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D360">
+        <v>540543</v>
+      </c>
+      <c r="E360">
+        <v>82</v>
+      </c>
+      <c r="F360" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>369</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+      <c r="C361">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D361">
+        <v>463974</v>
+      </c>
+      <c r="E361">
+        <v>82</v>
+      </c>
+      <c r="F361" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>370</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362">
+        <v>4.43</v>
+      </c>
+      <c r="D362">
+        <v>360917</v>
+      </c>
+      <c r="E362">
+        <v>82</v>
+      </c>
+      <c r="F362" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>371</v>
+      </c>
+      <c r="B363">
+        <v>4</v>
+      </c>
+      <c r="C363">
+        <v>4.46</v>
+      </c>
+      <c r="D363">
+        <v>308206</v>
+      </c>
+      <c r="E363">
+        <v>82</v>
+      </c>
+      <c r="F363" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>372</v>
+      </c>
+      <c r="B364">
+        <v>5</v>
+      </c>
+      <c r="C364">
+        <v>4.45</v>
+      </c>
+      <c r="D364">
+        <v>235025</v>
+      </c>
+      <c r="E364">
+        <v>82</v>
+      </c>
+      <c r="F364" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>373</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>3.86</v>
+      </c>
+      <c r="D365">
+        <v>134979</v>
+      </c>
+      <c r="E365">
+        <v>83</v>
+      </c>
+      <c r="F365" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>374</v>
+      </c>
+      <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366">
+        <v>3.86</v>
+      </c>
+      <c r="D366">
+        <v>62905</v>
+      </c>
+      <c r="E366">
+        <v>83</v>
+      </c>
+      <c r="F366" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>375</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <v>3.86</v>
+      </c>
+      <c r="D367">
+        <v>45026</v>
+      </c>
+      <c r="E367">
+        <v>83</v>
+      </c>
+      <c r="F367" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>376</v>
+      </c>
+      <c r="B368">
+        <v>4</v>
+      </c>
+      <c r="C368">
+        <v>4.01</v>
+      </c>
+      <c r="D368">
+        <v>37867</v>
+      </c>
+      <c r="E368">
+        <v>83</v>
+      </c>
+      <c r="F368" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>377</v>
+      </c>
+      <c r="B369">
+        <v>5</v>
+      </c>
+      <c r="C369">
+        <v>4.01</v>
+      </c>
+      <c r="D369">
+        <v>30851</v>
+      </c>
+      <c r="E369">
+        <v>83</v>
+      </c>
+      <c r="F369" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>378</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>3.36</v>
+      </c>
+      <c r="D370">
+        <v>564044</v>
+      </c>
+      <c r="E370">
+        <v>84</v>
+      </c>
+      <c r="F370" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>379</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="C371">
+        <v>3.69</v>
+      </c>
+      <c r="D371">
+        <v>260932</v>
+      </c>
+      <c r="E371">
+        <v>84</v>
+      </c>
+      <c r="F371" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>380</v>
+      </c>
+      <c r="B372">
+        <v>3</v>
+      </c>
+      <c r="C372">
+        <v>3.64</v>
+      </c>
+      <c r="D372">
+        <v>216341</v>
+      </c>
+      <c r="E372">
+        <v>84</v>
+      </c>
+      <c r="F372" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>381</v>
+      </c>
+      <c r="B373">
+        <v>4</v>
+      </c>
+      <c r="C373">
+        <v>3.9</v>
+      </c>
+      <c r="D373">
+        <v>129735</v>
+      </c>
+      <c r="E373">
+        <v>84</v>
+      </c>
+      <c r="F373" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>382</v>
+      </c>
+      <c r="B374">
+        <v>5</v>
+      </c>
+      <c r="C374">
+        <v>3.92</v>
+      </c>
+      <c r="D374">
+        <v>93196</v>
+      </c>
+      <c r="E374">
+        <v>84</v>
+      </c>
+      <c r="F374" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>383</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>3.73</v>
+      </c>
+      <c r="D375">
+        <v>1299551</v>
+      </c>
+      <c r="E375">
+        <v>85</v>
+      </c>
+      <c r="F375" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>384</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376">
+        <v>3.81</v>
+      </c>
+      <c r="D376">
+        <v>471432</v>
+      </c>
+      <c r="E376">
+        <v>85</v>
+      </c>
+      <c r="F376" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>385</v>
+      </c>
+      <c r="B377">
+        <v>3</v>
+      </c>
+      <c r="C377">
+        <v>3.9</v>
+      </c>
+      <c r="D377">
+        <v>238301</v>
+      </c>
+      <c r="E377">
+        <v>85</v>
+      </c>
+      <c r="F377" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>386</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>4</v>
+      </c>
+      <c r="D378">
+        <v>435091</v>
+      </c>
+      <c r="E378">
+        <v>86</v>
+      </c>
+      <c r="F378" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>387</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+      <c r="C379">
+        <v>4.25</v>
+      </c>
+      <c r="D379">
+        <v>293824</v>
+      </c>
+      <c r="E379">
+        <v>86</v>
+      </c>
+      <c r="F379" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>388</v>
+      </c>
+      <c r="B380">
+        <v>3</v>
+      </c>
+      <c r="C380">
+        <v>4.17</v>
+      </c>
+      <c r="D380">
+        <v>233077</v>
+      </c>
+      <c r="E380">
+        <v>86</v>
+      </c>
+      <c r="F380" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>389</v>
+      </c>
+      <c r="B381">
+        <v>4</v>
+      </c>
+      <c r="C381">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D381">
+        <v>156653</v>
+      </c>
+      <c r="E381">
+        <v>86</v>
+      </c>
+      <c r="F381" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>390</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>3.79</v>
+      </c>
+      <c r="D382">
+        <v>297359</v>
+      </c>
+      <c r="E382">
+        <v>87</v>
+      </c>
+      <c r="F382" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>391</v>
+      </c>
+      <c r="B383">
+        <v>2</v>
+      </c>
+      <c r="C383">
+        <v>3.89</v>
+      </c>
+      <c r="D383">
+        <v>178164</v>
+      </c>
+      <c r="E383">
+        <v>87</v>
+      </c>
+      <c r="F383" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>392</v>
+      </c>
+      <c r="B384">
+        <v>3</v>
+      </c>
+      <c r="C384">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D384">
+        <v>156009</v>
+      </c>
+      <c r="E384">
+        <v>87</v>
+      </c>
+      <c r="F384" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>393</v>
+      </c>
+      <c r="B385">
+        <v>4</v>
+      </c>
+      <c r="C385">
+        <v>3.93</v>
+      </c>
+      <c r="D385">
+        <v>114012</v>
+      </c>
+      <c r="E385">
+        <v>87</v>
+      </c>
+      <c r="F385" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>394</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>4.01</v>
+      </c>
+      <c r="D386">
+        <v>595623</v>
+      </c>
+      <c r="E386">
+        <v>88</v>
+      </c>
+      <c r="F386" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>395</v>
+      </c>
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387">
+        <v>3.64</v>
+      </c>
+      <c r="D387">
+        <v>142252</v>
+      </c>
+      <c r="E387">
+        <v>88</v>
+      </c>
+      <c r="F387" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>396</v>
+      </c>
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388">
+        <v>4.03</v>
+      </c>
+      <c r="D388">
+        <v>50820</v>
+      </c>
+      <c r="E388">
+        <v>88</v>
+      </c>
+      <c r="F388" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>397</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>4.25</v>
+      </c>
+      <c r="D389">
+        <v>855337</v>
+      </c>
+      <c r="E389">
+        <v>89</v>
+      </c>
+      <c r="F389" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>398</v>
+      </c>
+      <c r="B390">
+        <v>2</v>
+      </c>
+      <c r="C390">
+        <v>4.29</v>
+      </c>
+      <c r="D390">
+        <v>833410</v>
+      </c>
+      <c r="E390">
+        <v>89</v>
+      </c>
+      <c r="F390" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>399</v>
+      </c>
+      <c r="B391">
+        <v>3</v>
+      </c>
+      <c r="C391">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D391">
+        <v>1079857</v>
+      </c>
+      <c r="E391">
+        <v>89</v>
+      </c>
+      <c r="F391" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>400</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>3.8</v>
+      </c>
+      <c r="D392">
+        <v>175880</v>
+      </c>
+      <c r="E392">
+        <v>90</v>
+      </c>
+      <c r="F392" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>401</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393">
+        <v>3.79</v>
+      </c>
+      <c r="D393">
+        <v>68816</v>
+      </c>
+      <c r="E393">
+        <v>90</v>
+      </c>
+      <c r="F393" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>402</v>
+      </c>
+      <c r="B394">
+        <v>3</v>
+      </c>
+      <c r="C394">
+        <v>3.93</v>
+      </c>
+      <c r="D394">
+        <v>55773</v>
+      </c>
+      <c r="E394">
+        <v>90</v>
+      </c>
+      <c r="F394" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>403</v>
+      </c>
+      <c r="B395">
+        <v>4</v>
+      </c>
+      <c r="C395">
+        <v>4.07</v>
+      </c>
+      <c r="D395">
+        <v>43498</v>
+      </c>
+      <c r="E395">
+        <v>90</v>
+      </c>
+      <c r="F395" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
